--- a/电机驱动器型号列表.xlsx
+++ b/电机驱动器型号列表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hu\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hu\Documents\silicon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421DB622-14D3-4C85-BA9A-56768F6E0C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB893CA3-7A15-4204-8507-7ED57B465CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{200435BD-E829-414C-8DED-AA64712A132D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>PP Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>nanotec st2018m0804-bc5-e-1-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,27 +434,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151258B1-0E4D-4690-B497-09BED2C0504D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="2" max="2" width="44.375" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -466,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
